--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.983363592564</v>
+        <v>431.9704437608966</v>
       </c>
       <c r="AB2" t="n">
-        <v>519.9100017502275</v>
+        <v>591.0410183446493</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.2905208814554</v>
+        <v>534.6328930851145</v>
       </c>
       <c r="AD2" t="n">
-        <v>379983.3635925641</v>
+        <v>431970.4437608966</v>
       </c>
       <c r="AE2" t="n">
-        <v>519910.0017502275</v>
+        <v>591041.0183446492</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.296897792678523e-06</v>
+        <v>3.883019681865791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.821614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>470290.5208814554</v>
+        <v>534632.8930851144</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.2706457690046</v>
+        <v>225.5140983827466</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.8096681570374</v>
+        <v>308.5583383869872</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.4411664944199</v>
+        <v>279.1099636357724</v>
       </c>
       <c r="AD3" t="n">
-        <v>194270.6457690046</v>
+        <v>225514.0983827466</v>
       </c>
       <c r="AE3" t="n">
-        <v>265809.6681570375</v>
+        <v>308558.3383869872</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.554164801182607e-06</v>
+        <v>6.008491940554655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.700954861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>240441.1664944199</v>
+        <v>279109.9636357724</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.2815696876756</v>
+        <v>188.1106276053881</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.8820235885786</v>
+        <v>257.3812595447602</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.0378444952884</v>
+        <v>232.8171533707499</v>
       </c>
       <c r="AD4" t="n">
-        <v>167281.5696876757</v>
+        <v>188110.6276053881</v>
       </c>
       <c r="AE4" t="n">
-        <v>228882.0235885787</v>
+        <v>257381.2595447602</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.010071143268264e-06</v>
+        <v>6.779224232191201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>207037.8444952884</v>
+        <v>232817.1533707499</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.065763569233</v>
+        <v>174.2238753284035</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.7488893313748</v>
+        <v>238.3807924391269</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.0668900689355</v>
+        <v>215.6300641783492</v>
       </c>
       <c r="AD5" t="n">
-        <v>143065.763569233</v>
+        <v>174223.8753284035</v>
       </c>
       <c r="AE5" t="n">
-        <v>195748.8893313748</v>
+        <v>238380.7924391269</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.266454271543343e-06</v>
+        <v>7.212652631297069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.748263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>177066.8900689355</v>
+        <v>215630.0641783492</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.1246199008625</v>
+        <v>155.0389291645955</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.5152221088971</v>
+        <v>212.1311027177278</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.0007868761073</v>
+        <v>191.8856080022811</v>
       </c>
       <c r="AD6" t="n">
-        <v>134124.6199008625</v>
+        <v>155038.9291645955</v>
       </c>
       <c r="AE6" t="n">
-        <v>183515.2221088971</v>
+        <v>212131.1027177278</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.419574566653004e-06</v>
+        <v>7.471510087427304e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.585503472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>166000.7868761073</v>
+        <v>191885.6080022811</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.546985424408</v>
+        <v>152.461294688141</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.9883889010065</v>
+        <v>208.6042695098372</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.8105496796352</v>
+        <v>188.6953708058089</v>
       </c>
       <c r="AD7" t="n">
-        <v>131546.985424408</v>
+        <v>152461.294688141</v>
       </c>
       <c r="AE7" t="n">
-        <v>179988.3889010065</v>
+        <v>208604.2695098372</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.463269870379419e-06</v>
+        <v>7.545379166371785e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>162810.5496796352</v>
+        <v>188695.370805809</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.5205558428468</v>
+        <v>315.7122350176951</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.9793796132433</v>
+        <v>431.9714081920146</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.0009967168369</v>
+        <v>390.7446632698471</v>
       </c>
       <c r="AD2" t="n">
-        <v>275520.5558428468</v>
+        <v>315712.2350176951</v>
       </c>
       <c r="AE2" t="n">
-        <v>376979.3796132433</v>
+        <v>431971.4081920146</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.812580112011596e-06</v>
+        <v>4.870800945807476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.452256944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>341000.9967168369</v>
+        <v>390744.6632698471</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.4019457274853</v>
+        <v>183.5831709237563</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.5737509293195</v>
+        <v>251.1865935756627</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.2361859284196</v>
+        <v>227.2136976274728</v>
       </c>
       <c r="AD3" t="n">
-        <v>163401.9457274853</v>
+        <v>183583.1709237563</v>
       </c>
       <c r="AE3" t="n">
-        <v>223573.7509293194</v>
+        <v>251186.5935756627</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.976149913158701e-06</v>
+        <v>6.885860664012925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.271267361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>202236.1859284196</v>
+        <v>227213.6976274728</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.4632576478998</v>
+        <v>162.6496203249082</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.2420729802649</v>
+        <v>222.5443861232596</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.9445839099263</v>
+        <v>201.3050622547273</v>
       </c>
       <c r="AD4" t="n">
-        <v>132463.2576478998</v>
+        <v>162649.6203249082</v>
       </c>
       <c r="AE4" t="n">
-        <v>181242.0729802649</v>
+        <v>222544.3861232596</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.404894525700578e-06</v>
+        <v>7.628356728519772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163944.5839099262</v>
+        <v>201305.0622547273</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.7179555676912</v>
+        <v>142.9844321099829</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.9081207417455</v>
+        <v>195.637608040738</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.8832053587274</v>
+        <v>176.9662293084928</v>
       </c>
       <c r="AD5" t="n">
-        <v>122717.9555676912</v>
+        <v>142984.4321099829</v>
       </c>
       <c r="AE5" t="n">
-        <v>167908.1207417455</v>
+        <v>195637.608040738</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.593043772204651e-06</v>
+        <v>7.954191901680245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>151883.2053587274</v>
+        <v>176966.2293084928</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.6670797175857</v>
+        <v>142.9335562598773</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.838510159147</v>
+        <v>195.5679974581396</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.820238312433</v>
+        <v>176.9032622621984</v>
       </c>
       <c r="AD6" t="n">
-        <v>122667.0797175857</v>
+        <v>142933.5562598773</v>
       </c>
       <c r="AE6" t="n">
-        <v>167838.510159147</v>
+        <v>195567.9974581396</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.607821408095371e-06</v>
+        <v>7.979783678627654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>151820.238312433</v>
+        <v>176903.2622621984</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.2914481258946</v>
+        <v>139.5222688598761</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.9563103268135</v>
+        <v>190.9005235420816</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.1176729904128</v>
+        <v>172.6812455058468</v>
       </c>
       <c r="AD2" t="n">
-        <v>121291.4481258946</v>
+        <v>139522.2688598761</v>
       </c>
       <c r="AE2" t="n">
-        <v>165956.3103268135</v>
+        <v>190900.5235420816</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.545980895901114e-06</v>
+        <v>8.601974103398957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.145399305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>150117.6729904128</v>
+        <v>172681.2455058468</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.0577726963023</v>
+        <v>130.3185286798764</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.0081911910706</v>
+        <v>178.3075601874525</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.5505673300721</v>
+        <v>161.2901368994444</v>
       </c>
       <c r="AD3" t="n">
-        <v>103057.7726963023</v>
+        <v>130318.5286798764</v>
       </c>
       <c r="AE3" t="n">
-        <v>141008.1911910706</v>
+        <v>178307.5601874525</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.838699817505368e-06</v>
+        <v>9.155861293176853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.832899305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>127550.5673300721</v>
+        <v>161290.1368994444</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.5326690622717</v>
+        <v>188.0225613991886</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.2796358955377</v>
+        <v>257.2607634762314</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.4473338031233</v>
+        <v>232.7081572778841</v>
       </c>
       <c r="AD2" t="n">
-        <v>159532.6690622717</v>
+        <v>188022.5613991886</v>
       </c>
       <c r="AE2" t="n">
-        <v>218279.6358955377</v>
+        <v>257260.7634762314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.824497304997656e-06</v>
+        <v>6.967403505344623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>197447.3338031233</v>
+        <v>232708.1572778841</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.5704058276862</v>
+        <v>138.9749573100316</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.2873072754072</v>
+        <v>190.1516677339033</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.8486590021529</v>
+        <v>172.003859444975</v>
       </c>
       <c r="AD3" t="n">
-        <v>110570.4058276862</v>
+        <v>138974.9573100316</v>
       </c>
       <c r="AE3" t="n">
-        <v>151287.3072754072</v>
+        <v>190151.6677339033</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.768120073049271e-06</v>
+        <v>8.686479257667541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.691840277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>136848.6590021529</v>
+        <v>172003.859444975</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.8616260067579</v>
+        <v>138.2661774891033</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.3175234552548</v>
+        <v>189.1818839137509</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.9714299886954</v>
+        <v>171.1266304315175</v>
       </c>
       <c r="AD4" t="n">
-        <v>109861.6260067579</v>
+        <v>138266.1774891033</v>
       </c>
       <c r="AE4" t="n">
-        <v>150317.5234552548</v>
+        <v>189181.8839137509</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.794721326781494e-06</v>
+        <v>8.734940964846224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.665798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>135971.4299886954</v>
+        <v>171126.6304315175</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.3046815689965</v>
+        <v>124.9100710116819</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.818999271084</v>
+        <v>170.90746980152</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.8068000424513</v>
+        <v>154.5963007538508</v>
       </c>
       <c r="AD2" t="n">
-        <v>107304.6815689965</v>
+        <v>124910.0710116819</v>
       </c>
       <c r="AE2" t="n">
-        <v>146818.999271084</v>
+        <v>170907.46980152</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.7833952056523e-06</v>
+        <v>9.373913390906199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>132806.8000424513</v>
+        <v>154596.3007538508</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.911904505497</v>
+        <v>125.5172939481825</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.649828481589</v>
+        <v>171.738299012025</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.5583360791821</v>
+        <v>155.3478367905817</v>
       </c>
       <c r="AD3" t="n">
-        <v>107911.904505497</v>
+        <v>125517.2939481825</v>
       </c>
       <c r="AE3" t="n">
-        <v>147649.828481589</v>
+        <v>171738.299012025</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.782611666399258e-06</v>
+        <v>9.372377906426949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>133558.336079182</v>
+        <v>155347.8367905816</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.1926960127223</v>
+        <v>335.8955219727866</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.8956696672398</v>
+        <v>459.5870718277482</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.3484338253303</v>
+        <v>415.7247267270138</v>
       </c>
       <c r="AD2" t="n">
-        <v>295192.6960127223</v>
+        <v>335895.5219727866</v>
       </c>
       <c r="AE2" t="n">
-        <v>403895.6696672398</v>
+        <v>459587.0718277482</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.680301923643021e-06</v>
+        <v>4.611409089489205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.749565972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>365348.4338253303</v>
+        <v>415724.7267270138</v>
       </c>
     </row>
     <row r="3">
@@ -5471,28 +5471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.332008854589</v>
+        <v>200.6885361240446</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.0557690326255</v>
+        <v>274.5909088781386</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.8132535320452</v>
+        <v>248.3843379256506</v>
       </c>
       <c r="AD3" t="n">
-        <v>170332.008854589</v>
+        <v>200688.5361240446</v>
       </c>
       <c r="AE3" t="n">
-        <v>233055.7690326255</v>
+        <v>274590.9088781386</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.873908272754815e-06</v>
+        <v>6.664986382037252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.362413194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>210813.2535320452</v>
+        <v>248384.3379256506</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.7563881291541</v>
+        <v>169.1981667446303</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.8526117380351</v>
+        <v>231.5043962361973</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.7333449336246</v>
+        <v>209.4099415779422</v>
       </c>
       <c r="AD4" t="n">
-        <v>138756.3881291541</v>
+        <v>169198.1667446303</v>
       </c>
       <c r="AE4" t="n">
-        <v>189852.6117380351</v>
+        <v>231504.3962361973</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.295164210400445e-06</v>
+        <v>7.389749306215597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.837239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>171733.3449336246</v>
+        <v>209409.9415779423</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.6171441911175</v>
+        <v>147.0538980257211</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.2431626363762</v>
+        <v>201.2056308388137</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.7090783427146</v>
+        <v>182.002847825491</v>
       </c>
       <c r="AD5" t="n">
-        <v>126617.1441911175</v>
+        <v>147053.8980257211</v>
       </c>
       <c r="AE5" t="n">
-        <v>173243.1626363762</v>
+        <v>201205.6308388137</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.531779679125734e-06</v>
+        <v>7.796841773511407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>156709.0783427146</v>
+        <v>182002.847825491</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.1494387798872</v>
+        <v>145.5861926144908</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.234983342139</v>
+        <v>199.1974515445766</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.8925568618214</v>
+        <v>180.1863263445978</v>
       </c>
       <c r="AD6" t="n">
-        <v>125149.4387798872</v>
+        <v>145586.1926144907</v>
       </c>
       <c r="AE6" t="n">
-        <v>171234.983342139</v>
+        <v>199197.4515445766</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.559250811619326e-06</v>
+        <v>7.844105340709588e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.555121527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>154892.5568618214</v>
+        <v>180186.3263445978</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.2495780782961</v>
+        <v>130.9314123264674</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.0071160103419</v>
+        <v>179.146134631236</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.2632789736106</v>
+        <v>162.0486789752601</v>
       </c>
       <c r="AD2" t="n">
-        <v>105249.5780782961</v>
+        <v>130931.4123264673</v>
       </c>
       <c r="AE2" t="n">
-        <v>144007.1160103419</v>
+        <v>179146.134631236</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.682403125196255e-06</v>
+        <v>9.386628012377649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.308159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>130263.2789736106</v>
+        <v>162048.6789752601</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.9766569922649</v>
+        <v>252.1483231149526</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.4040579636614</v>
+        <v>345.0004596846396</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.5928636598595</v>
+        <v>312.0741000236269</v>
       </c>
       <c r="AD2" t="n">
-        <v>212976.6569922649</v>
+        <v>252148.3231149526</v>
       </c>
       <c r="AE2" t="n">
-        <v>291404.0579636614</v>
+        <v>345000.4596846396</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.266725083057816e-06</v>
+        <v>5.785612862309048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.610243055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>263592.8636598595</v>
+        <v>312074.1000236269</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.4462875447961</v>
+        <v>160.803701923169</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.8506096196446</v>
+        <v>220.0187191298289</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.685919859512</v>
+        <v>199.0204413743529</v>
       </c>
       <c r="AD3" t="n">
-        <v>131446.2875447961</v>
+        <v>160803.701923169</v>
       </c>
       <c r="AE3" t="n">
-        <v>179850.6096196446</v>
+        <v>220018.7191298289</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345648936913266e-06</v>
+        <v>7.696467178973826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.969618055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>162685.919859512</v>
+        <v>199020.4413743529</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.3240062544505</v>
+        <v>136.0378505976517</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.1596372102384</v>
+        <v>186.132988754024</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.9696648168908</v>
+        <v>168.3687175466827</v>
       </c>
       <c r="AD4" t="n">
-        <v>116324.0062544504</v>
+        <v>136037.8505976517</v>
       </c>
       <c r="AE4" t="n">
-        <v>159159.6372102384</v>
+        <v>186132.9887540239</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.696134992371566e-06</v>
+        <v>8.317204026722705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.598524305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>143969.6648168908</v>
+        <v>168368.7175466827</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.5802825972683</v>
+        <v>136.2941269404695</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.5102858085959</v>
+        <v>186.4836373523815</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.2868480051596</v>
+        <v>168.6859007349515</v>
       </c>
       <c r="AD5" t="n">
-        <v>116580.2825972683</v>
+        <v>136294.1269404695</v>
       </c>
       <c r="AE5" t="n">
-        <v>159510.2858085959</v>
+        <v>186483.6373523815</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.695537912208945e-06</v>
+        <v>8.316146553387527e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.598524305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>144286.8480051596</v>
+        <v>168685.9007349515</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.7948655147898</v>
+        <v>285.801530104821</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.9898198701913</v>
+        <v>391.0462621630499</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.587282675682</v>
+        <v>353.7253557390836</v>
       </c>
       <c r="AD2" t="n">
-        <v>255794.8655147898</v>
+        <v>285801.530104821</v>
       </c>
       <c r="AE2" t="n">
-        <v>349989.8198701913</v>
+        <v>391046.2621630499</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.963806814695505e-06</v>
+        <v>5.16862028757603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.139756944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>316587.282675682</v>
+        <v>353725.3557390835</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.9387137991824</v>
+        <v>175.9431866953844</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.3622277504654</v>
+        <v>240.7332301020933</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.9992361897894</v>
+        <v>217.7579884924297</v>
       </c>
       <c r="AD3" t="n">
-        <v>155938.7137991824</v>
+        <v>175943.1866953844</v>
       </c>
       <c r="AE3" t="n">
-        <v>213362.2277504654</v>
+        <v>240733.2301020933</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.093187159289315e-06</v>
+        <v>7.138160991954528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>192999.2361897894</v>
+        <v>217757.9884924297</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.2990994641297</v>
+        <v>156.2203336910347</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.8079998097686</v>
+        <v>213.7475525106903</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.3154468455234</v>
+        <v>193.3477860957053</v>
       </c>
       <c r="AD4" t="n">
-        <v>126299.0994641297</v>
+        <v>156220.3336910346</v>
       </c>
       <c r="AE4" t="n">
-        <v>172807.9998097686</v>
+        <v>213747.5525106903</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.517033862038973e-06</v>
+        <v>7.877312631593078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.685329861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>156315.4468455234</v>
+        <v>193347.7860957053</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.4355326475884</v>
+        <v>140.525256889811</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.7852090090697</v>
+        <v>192.2728560133468</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.058339938783</v>
+        <v>173.9226044921356</v>
       </c>
       <c r="AD5" t="n">
-        <v>120435.5326475884</v>
+        <v>140525.256889811</v>
       </c>
       <c r="AE5" t="n">
-        <v>164785.2090090697</v>
+        <v>192272.8560133468</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.637937913432941e-06</v>
+        <v>8.088158739978586e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.561631944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>149058.339938783</v>
+        <v>173922.6044921356</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.6689050827746</v>
+        <v>393.9333550321514</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.5371545882708</v>
+        <v>538.9969954680582</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.4844857995154</v>
+        <v>487.5558787076204</v>
       </c>
       <c r="AD2" t="n">
-        <v>352668.9050827746</v>
+        <v>393933.3550321514</v>
       </c>
       <c r="AE2" t="n">
-        <v>482537.1545882708</v>
+        <v>538996.9954680583</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42019460762785e-06</v>
+        <v>4.114170431232847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.439670138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>436484.4857995154</v>
+        <v>487555.8787076204</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.4418459923592</v>
+        <v>217.4541219639069</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.0979589203665</v>
+        <v>297.5303230696723</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.7517677533151</v>
+        <v>269.1344466224217</v>
       </c>
       <c r="AD3" t="n">
-        <v>186441.8459923592</v>
+        <v>217454.1219639069</v>
       </c>
       <c r="AE3" t="n">
-        <v>255097.9589203665</v>
+        <v>297530.3230696723</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.651373090167418e-06</v>
+        <v>6.207092253498677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.592447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>230751.767753315</v>
+        <v>269134.4466224217</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.5533709105089</v>
+        <v>181.4803060274849</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.9937640256258</v>
+        <v>248.3093610527339</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.3340083011423</v>
+        <v>224.6110641383102</v>
       </c>
       <c r="AD4" t="n">
-        <v>150553.3709105089</v>
+        <v>181480.3060274849</v>
       </c>
       <c r="AE4" t="n">
-        <v>205993.7640256257</v>
+        <v>248309.3610527339</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.108571153779803e-06</v>
+        <v>6.984298660207698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.971788194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>186334.0083011423</v>
+        <v>224611.0641383102</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.3162231276897</v>
+        <v>168.2431582446658</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.8821144474368</v>
+        <v>230.197711474545</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.9509091388301</v>
+        <v>208.227964975998</v>
       </c>
       <c r="AD5" t="n">
-        <v>137316.2231276897</v>
+        <v>168243.1582446658</v>
       </c>
       <c r="AE5" t="n">
-        <v>187882.1144474368</v>
+        <v>230197.711474545</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.352228170390026e-06</v>
+        <v>7.398499439740357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.691840277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>169950.9091388301</v>
+        <v>208227.964975998</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.6036326784947</v>
+        <v>150.3638241807647</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.3294079393768</v>
+        <v>205.7344178277783</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.4053381290795</v>
+        <v>186.0994137404227</v>
       </c>
       <c r="AD6" t="n">
-        <v>129603.6326784947</v>
+        <v>150363.8241807647</v>
       </c>
       <c r="AE6" t="n">
-        <v>177329.4079393768</v>
+        <v>205734.4178277784</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.491043967802186e-06</v>
+        <v>7.634477095132659e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>160405.3381290795</v>
+        <v>186099.4137404227</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.6740066220634</v>
+        <v>150.4341981243335</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.4256966736468</v>
+        <v>205.8307065620483</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.4924372016928</v>
+        <v>186.1865128130361</v>
       </c>
       <c r="AD7" t="n">
-        <v>129674.0066220634</v>
+        <v>150434.1981243335</v>
       </c>
       <c r="AE7" t="n">
-        <v>177425.6966736468</v>
+        <v>205830.7065620483</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.488032370841379e-06</v>
+        <v>7.629357579897029e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>160492.4372016928</v>
+        <v>186186.5128130361</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.6037993618129</v>
+        <v>211.3429870992539</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.8465741977884</v>
+        <v>289.1687987436158</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.0015678182934</v>
+        <v>261.5709344425682</v>
       </c>
       <c r="AD2" t="n">
-        <v>182603.7993618129</v>
+        <v>211342.9870992539</v>
       </c>
       <c r="AE2" t="n">
-        <v>249846.5741977884</v>
+        <v>289168.7987436157</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.629305550845851e-06</v>
+        <v>6.544496746831817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>226001.5678182934</v>
+        <v>261570.9344425682</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.8832198297078</v>
+        <v>144.6223180585978</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.5565337777813</v>
+        <v>197.8786358540602</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.4241207295662</v>
+        <v>178.9933765726145</v>
       </c>
       <c r="AD3" t="n">
-        <v>115883.2198297078</v>
+        <v>144622.3180585978</v>
       </c>
       <c r="AE3" t="n">
-        <v>158556.5337777813</v>
+        <v>197878.6358540602</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.659472008890464e-06</v>
+        <v>8.402130649217619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.741753472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>143424.1207295662</v>
+        <v>178993.3765726145</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.8211702670544</v>
+        <v>140.5602684959443</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.9986583611825</v>
+        <v>192.3207604374614</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.3966811421987</v>
+        <v>173.965936985247</v>
       </c>
       <c r="AD4" t="n">
-        <v>111821.1702670544</v>
+        <v>140560.2684959443</v>
       </c>
       <c r="AE4" t="n">
-        <v>152998.6583611825</v>
+        <v>192320.7604374614</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.769025192212861e-06</v>
+        <v>8.599680963406899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.633246527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>138396.6811421987</v>
+        <v>173965.936985247</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.8131048665695</v>
+        <v>161.3976741644057</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.0889934959042</v>
+        <v>220.8314181544944</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.6152369237228</v>
+        <v>199.7555775447349</v>
       </c>
       <c r="AD2" t="n">
-        <v>133813.1048665695</v>
+        <v>161397.6741644057</v>
       </c>
       <c r="AE2" t="n">
-        <v>183088.9934959042</v>
+        <v>220831.4181544944</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.276141018303513e-06</v>
+        <v>7.977912302731662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>165615.2369237228</v>
+        <v>199755.5775447349</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1267788549002</v>
+        <v>132.7965994987569</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.8390966953724</v>
+        <v>181.6981660066118</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.111295186245</v>
+        <v>164.3571480579694</v>
       </c>
       <c r="AD3" t="n">
-        <v>105126.7788549002</v>
+        <v>132796.5994987569</v>
       </c>
       <c r="AE3" t="n">
-        <v>143839.0966953724</v>
+        <v>181698.1660066118</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.836337869879176e-06</v>
+        <v>9.023060564916455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130111.295186245</v>
+        <v>164357.1480579694</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.2059756486042</v>
+        <v>129.0211027335103</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.8427248917771</v>
+        <v>176.5323647692422</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.4963314986406</v>
+        <v>159.6843636404451</v>
       </c>
       <c r="AD2" t="n">
-        <v>102205.9756486042</v>
+        <v>129021.1027335103</v>
       </c>
       <c r="AE2" t="n">
-        <v>139842.7248917771</v>
+        <v>176532.3647692422</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.765662182956416e-06</v>
+        <v>9.164545105772279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.995659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>126496.3314986406</v>
+        <v>159684.3636404451</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.2918075720357</v>
+        <v>128.1069346569418</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.5919197991674</v>
+        <v>175.2815596766326</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.3649014885532</v>
+        <v>158.5529336303578</v>
       </c>
       <c r="AD3" t="n">
-        <v>101291.8075720357</v>
+        <v>128106.9346569418</v>
       </c>
       <c r="AE3" t="n">
-        <v>138591.9197991674</v>
+        <v>175281.5596766326</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.815910198053659e-06</v>
+        <v>9.26117390218196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.943576388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>125364.9014885532</v>
+        <v>158552.9336303578</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.6629838933434</v>
+        <v>128.8691841436509</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.8362678508953</v>
+        <v>176.3245030524215</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.2996135156963</v>
+        <v>159.496339954142</v>
       </c>
       <c r="AD2" t="n">
-        <v>103662.9838933433</v>
+        <v>128869.1841436509</v>
       </c>
       <c r="AE2" t="n">
-        <v>141836.2678508953</v>
+        <v>176324.5030524215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.472777593050554e-06</v>
+        <v>9.225548028032552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.713975694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>128299.6135156963</v>
+        <v>159496.339954142</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.3905859175585</v>
+        <v>268.9461489437392</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.8623196506743</v>
+        <v>367.9839860515221</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.9077403718393</v>
+        <v>332.8641108915322</v>
       </c>
       <c r="AD2" t="n">
-        <v>229390.5859175585</v>
+        <v>268946.1489437392</v>
       </c>
       <c r="AE2" t="n">
-        <v>313862.3196506743</v>
+        <v>367983.9860515221</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.10555901387754e-06</v>
+        <v>5.456344679987349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.881510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>283907.7403718393</v>
+        <v>332864.1108915322</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.2790991881159</v>
+        <v>168.0996406370414</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.8820051212619</v>
+        <v>230.0013443522435</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.5192312992289</v>
+        <v>208.0503388562459</v>
       </c>
       <c r="AD3" t="n">
-        <v>148279.0991881159</v>
+        <v>168099.6406370414</v>
       </c>
       <c r="AE3" t="n">
-        <v>202882.0051212619</v>
+        <v>230001.3443522435</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.221890095223171e-06</v>
+        <v>7.417694353133487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.062934027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>183519.2312992289</v>
+        <v>208050.3388562459</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.3385194946993</v>
+        <v>140.2443122896454</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.6524713333686</v>
+        <v>191.8884552169994</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.9382705605523</v>
+        <v>173.5748903682816</v>
       </c>
       <c r="AD4" t="n">
-        <v>120338.5194946993</v>
+        <v>140244.3122896454</v>
       </c>
       <c r="AE4" t="n">
-        <v>164652.4713333686</v>
+        <v>191888.4552169994</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.628007718676714e-06</v>
+        <v>8.131226997104435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>148938.2705605523</v>
+        <v>173574.8903682816</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.5647340462278</v>
+        <v>138.4705268411739</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.2254998288801</v>
+        <v>189.4614837125108</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.7429258101755</v>
+        <v>171.3795456179047</v>
       </c>
       <c r="AD5" t="n">
-        <v>118564.7340462278</v>
+        <v>138470.5268411739</v>
       </c>
       <c r="AE5" t="n">
-        <v>162225.4998288801</v>
+        <v>189461.4837125108</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.668284660478969e-06</v>
+        <v>8.20199199501523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>146742.9258101755</v>
+        <v>171379.5456179047</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.8098739540608</v>
+        <v>369.7562496977025</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.892175611799</v>
+        <v>505.916813330856</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.9550977990423</v>
+        <v>457.6328227252655</v>
       </c>
       <c r="AD2" t="n">
-        <v>328809.8739540608</v>
+        <v>369756.2496977025</v>
       </c>
       <c r="AE2" t="n">
-        <v>449892.1756117989</v>
+        <v>505916.813330856</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.542717277122027e-06</v>
+        <v>4.347763177374169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>406955.0977990424</v>
+        <v>457632.8227252655</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.729708522585</v>
+        <v>209.332836639239</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.5458721987341</v>
+        <v>286.4184222026453</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.2067573784451</v>
+        <v>259.0830499784894</v>
       </c>
       <c r="AD3" t="n">
-        <v>178729.708522585</v>
+        <v>209332.836639239</v>
       </c>
       <c r="AE3" t="n">
-        <v>244545.8721987341</v>
+        <v>286418.4222026453</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.752726159397936e-06</v>
+        <v>6.41674351977753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>221206.7573784451</v>
+        <v>259083.0499784895</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.193296794517</v>
+        <v>174.8816762571916</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.2916300334627</v>
+        <v>239.2808246900232</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.4623937636668</v>
+        <v>216.4441986144234</v>
       </c>
       <c r="AD4" t="n">
-        <v>144193.296794517</v>
+        <v>174881.6762571916</v>
       </c>
       <c r="AE4" t="n">
-        <v>197291.6300334627</v>
+        <v>239280.8246900232</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.205850809454203e-06</v>
+        <v>7.191536174077274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>178462.3937636668</v>
+        <v>216444.1986144234</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.853565723848</v>
+        <v>162.5419451865227</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.4078655920683</v>
+        <v>222.3970602486288</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.1899921040415</v>
+        <v>201.1717969547981</v>
       </c>
       <c r="AD5" t="n">
-        <v>131853.5657238481</v>
+        <v>162541.9451865227</v>
       </c>
       <c r="AE5" t="n">
-        <v>180407.8655920683</v>
+        <v>222397.0602486288</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.442044998771491e-06</v>
+        <v>7.59540191576357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>163189.9921040415</v>
+        <v>201171.796954798</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.1691946435588</v>
+        <v>147.7703490429613</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.998502420153</v>
+        <v>202.1859107281894</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.3923295576541</v>
+        <v>182.8895711780565</v>
       </c>
       <c r="AD6" t="n">
-        <v>127169.1946435588</v>
+        <v>147770.3490429613</v>
       </c>
       <c r="AE6" t="n">
-        <v>173998.502420153</v>
+        <v>202185.9107281894</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.528589434551871e-06</v>
+        <v>7.743383256228779e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>157392.3295576541</v>
+        <v>182889.5711780565</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.56729041158</v>
+        <v>148.1684448109824</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.5431946127052</v>
+        <v>202.7306029207415</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.8850370918294</v>
+        <v>183.3822787122319</v>
       </c>
       <c r="AD7" t="n">
-        <v>127567.29041158</v>
+        <v>148168.4448109824</v>
       </c>
       <c r="AE7" t="n">
-        <v>174543.1946127051</v>
+        <v>202730.6029207415</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.528304748907857e-06</v>
+        <v>7.742896475503562e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>157885.0370918294</v>
+        <v>183382.2787122318</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.2403981052044</v>
+        <v>135.7395243600175</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.2040202674803</v>
+        <v>185.7248056344683</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.6778821928777</v>
+        <v>167.9994908511687</v>
       </c>
       <c r="AD2" t="n">
-        <v>111240.3981052044</v>
+        <v>135739.5243600175</v>
       </c>
       <c r="AE2" t="n">
-        <v>152204.0202674803</v>
+        <v>185724.8056344683</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.019580409341307e-06</v>
+        <v>8.615812197613872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.584201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>137677.8821928777</v>
+        <v>167999.4908511687</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.718182760994</v>
+        <v>174.8529146862318</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7462904029021</v>
+        <v>239.241471839765</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.5873461960943</v>
+        <v>216.4086015449618</v>
       </c>
       <c r="AD2" t="n">
-        <v>146718.182760994</v>
+        <v>174852.9146862318</v>
       </c>
       <c r="AE2" t="n">
-        <v>200746.2904029021</v>
+        <v>239241.471839765</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.03541103413825e-06</v>
+        <v>7.434972581814098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.620659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>181587.3461960943</v>
+        <v>216408.6015449617</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.0447636385797</v>
+        <v>135.0941547092459</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.4633680919182</v>
+        <v>184.8417824065835</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.4851098038935</v>
+        <v>167.2007421208221</v>
       </c>
       <c r="AD3" t="n">
-        <v>107044.7636385797</v>
+        <v>135094.1547092459</v>
       </c>
       <c r="AE3" t="n">
-        <v>146463.3680919182</v>
+        <v>184841.7824065835</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.82478893584876e-06</v>
+        <v>8.889348110417691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.700520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>132485.1098038935</v>
+        <v>167200.7421208221</v>
       </c>
     </row>
     <row r="4">
@@ -18472,28 +18472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.5216586555546</v>
+        <v>135.5710497262208</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.1158768932662</v>
+        <v>185.4942912079315</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.0753440810428</v>
+        <v>167.7909763979715</v>
       </c>
       <c r="AD4" t="n">
-        <v>107521.6586555546</v>
+        <v>135571.0497262208</v>
       </c>
       <c r="AE4" t="n">
-        <v>147115.8768932662</v>
+        <v>185494.2912079315</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.822803210953686e-06</v>
+        <v>8.885689546265239e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.702690972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>133075.3440810428</v>
+        <v>167790.9763979715</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.6373230001299</v>
+        <v>225.693364376816</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.0478603550922</v>
+        <v>308.8036180287305</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.3703101739245</v>
+        <v>279.3318341327597</v>
       </c>
       <c r="AD2" t="n">
-        <v>196637.3230001299</v>
+        <v>225693.364376816</v>
       </c>
       <c r="AE2" t="n">
-        <v>269047.8603550922</v>
+        <v>308803.6180287304</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.451150405713555e-06</v>
+        <v>6.165228340784654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>243370.3101739245</v>
+        <v>279331.8341327597</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.3413412537937</v>
+        <v>152.3972931219288</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7610645393059</v>
+        <v>208.5166997433958</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.6547453973631</v>
+        <v>188.6161585749717</v>
       </c>
       <c r="AD3" t="n">
-        <v>123341.3412537937</v>
+        <v>152397.2931219288</v>
       </c>
       <c r="AE3" t="n">
-        <v>168761.0645393059</v>
+        <v>208516.6997433958</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.507384757826657e-06</v>
+        <v>8.05211392866781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>152654.7453973631</v>
+        <v>188616.1585749717</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.1756066176084</v>
+        <v>133.6884759539846</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.2201020464099</v>
+        <v>182.9184707194659</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.3106747634337</v>
+        <v>165.4609886017375</v>
       </c>
       <c r="AD4" t="n">
-        <v>114175.6066176084</v>
+        <v>133688.4759539845</v>
       </c>
       <c r="AE4" t="n">
-        <v>156220.1020464099</v>
+        <v>182918.4707194659</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.730364211411742e-06</v>
+        <v>8.450450449840438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.615885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>141310.6747634337</v>
+        <v>165460.9886017375</v>
       </c>
     </row>
   </sheetData>
